--- a/banks/facile/catalog/PNB_Bank_Operations_List_19.07.X.xlsx
+++ b/banks/facile/catalog/PNB_Bank_Operations_List_19.07.X.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Downloads/Catalog_operation_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/facile/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C52069-3CDD-5946-86D1-5B1010C5C750}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549B328-44AE-824B-B927-E3DC1F7ABC5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="4220" windowWidth="28520" windowHeight="16700" tabRatio="916" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="110">
   <si>
     <t>Author:</t>
   </si>
@@ -976,56 +976,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1034,18 +1046,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1472,51 +1472,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="60"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="76">
         <v>42895</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1532,228 +1532,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="67"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="67"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="67"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="67"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="67"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="67"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1766,238 +1766,286 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="71"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="66"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="68"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="68"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="68"/>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="74"/>
+      <c r="I27" s="63"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="74"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="74" t="s">
+      <c r="H29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="74"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="74" t="s">
+      <c r="H30" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="74"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="68"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="16">
         <v>45292</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="17">
         <v>43323</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="68"/>
+      <c r="I32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2008,54 +2056,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2096,13 +2096,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="83" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="80" t="s">
@@ -2114,63 +2114,63 @@
       <c r="F1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="82" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="82" t="s">
+      <c r="V1" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="82" t="s">
+      <c r="W1" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="82" t="s">
+      <c r="X1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="82" t="s">
+      <c r="Y1" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="82" t="s">
+      <c r="Z1" s="77" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="24" t="s">
         <v>58</v>
       </c>
@@ -2198,12 +2198,12 @@
       <c r="T2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -2263,6 +2263,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2271,16 +2281,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2289,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2341,34 +2341,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2682,12 +2682,12 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="29">
-        <v>713</v>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39">
+        <v>833</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>70</v>
@@ -2695,240 +2695,240 @@
       <c r="D18" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="30"/>
+      <c r="E18" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="39"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="30"/>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="39">
-        <v>830</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="39">
-        <v>831</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-    </row>
-    <row r="22" spans="1:12" ht="14" customHeight="1">
-      <c r="A22" s="39">
-        <v>832</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="39">
-        <v>833</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29">
+        <v>313</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29">
+        <v>321</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>318</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="54"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="A25" s="29">
+        <v>250</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
+        <v>91</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>321</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="34"/>
+        <v>372</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+        <v>93</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="54"/>
@@ -2946,297 +2946,181 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="29">
-        <v>250</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="28"/>
-    </row>
-    <row r="31" spans="1:12">
+        <v>601</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="1:12" ht="16">
       <c r="A31" s="29">
-        <v>371</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="28"/>
+        <v>600</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29">
-        <v>372</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="28"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="A32" s="54"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+    </row>
+    <row r="33" spans="1:12" ht="16">
       <c r="A33" s="29">
-        <v>373</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="28"/>
+        <v>813</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="54"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="29">
-        <v>601</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="1:12" ht="16">
+      <c r="A35" s="58">
+        <v>222</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:12" ht="16">
-      <c r="A36" s="29">
-        <v>600</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-    </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>813</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="58">
-        <v>222</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="53"/>
-    </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="58">
+      <c r="A36" s="58">
         <v>675</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B36" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="39">
+      <c r="C36" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="39">
         <v>767</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B37" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="C37" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3253,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3305,34 +3189,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3646,12 +3530,12 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="29">
-        <v>713</v>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39">
+        <v>833</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>70</v>
@@ -3659,240 +3543,240 @@
       <c r="D18" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="30"/>
+      <c r="E18" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="39"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="30"/>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="39">
-        <v>830</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="39">
-        <v>831</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-    </row>
-    <row r="22" spans="1:12" ht="14" customHeight="1">
-      <c r="A22" s="39">
-        <v>832</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="39">
-        <v>833</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29">
+        <v>313</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29">
+        <v>321</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="A23" s="29">
+        <v>318</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="54"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="30"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
+      <c r="A25" s="29">
+        <v>250</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
+        <v>91</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="34"/>
+        <v>92</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="29">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+        <v>93</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="54"/>
@@ -3908,299 +3792,183 @@
       <c r="K29" s="36"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" ht="16">
       <c r="A30" s="29">
-        <v>250</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="28"/>
-    </row>
-    <row r="31" spans="1:12">
+        <v>601</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="1:12" ht="16">
       <c r="A31" s="29">
-        <v>371</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="28"/>
+        <v>600</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29">
-        <v>372</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="28"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="54"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+    </row>
+    <row r="33" spans="1:12" ht="16">
       <c r="A33" s="29">
-        <v>373</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="28"/>
+        <v>813</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="54"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" ht="16">
-      <c r="A35" s="29">
-        <v>601</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
+      <c r="A35" s="58">
+        <v>222</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:12" ht="16">
-      <c r="A36" s="29">
-        <v>600</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-    </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>813</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="58">
-        <v>222</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="53"/>
-    </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="58">
+      <c r="A36" s="58">
         <v>675</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B36" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="39">
+      <c r="C36" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="39">
         <v>767</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B37" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="C37" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4269,34 +4037,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4597,34 +4365,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4925,34 +4693,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5253,34 +5021,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5527,7 +5295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
@@ -5577,34 +5345,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
